--- a/biology/Botanique/Hygrophila_corymbosa/Hygrophila_corymbosa.xlsx
+++ b/biology/Botanique/Hygrophila_corymbosa/Hygrophila_corymbosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hygrophila corymbosa ou Hygrophile géante est une espèce de plantes aquatiques de la famille des Acanthaceae originaire d'Asie du Sud et d'Asie du Sud-Est.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hygrophila corymbosa autrement appelé « kompakt » est une plante dont la taille est d'environ une quinzaine de centimètres et parfois jusqu'à 50-60 cm avec des feuilles longues ovales atteignant 15-20 cm de long[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hygrophila corymbosa autrement appelé « kompakt » est une plante dont la taille est d'environ une quinzaine de centimètres et parfois jusqu'à 50-60 cm avec des feuilles longues ovales atteignant 15-20 cm de long.
 L'ensoleillement et la pénombre dans une eau entre 22 et 28 °C conviennent parfaitement à cette plante. Cette plante a les nouvelles feuilles d'une couleur rougeâtre. Cette plante grandit avec un substrat nutritif mais peut très bien vivre avec un complément nutritif en argile .
 Pour une meilleure pousse, il faut qu'elle soit placée dans un bac nano au second plan.
 </t>
